--- a/Experiments/report_beta_p-value_ROI.xlsx
+++ b/Experiments/report_beta_p-value_ROI.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="228">
   <si>
     <t>ROI</t>
   </si>
@@ -97,15 +97,15 @@
     <t>Right Inferior Fronto-occipital Fasciculus</t>
   </si>
   <si>
-    <t>Left Middle Fronto-orbital</t>
-  </si>
-  <si>
     <t>Left Lateral Fronto-orbital WM</t>
   </si>
   <si>
     <t>Right Lateral Fronto-orbital WM</t>
   </si>
   <si>
+    <t>Left Middle Fronto-orbital WM</t>
+  </si>
+  <si>
     <t>Right Middle Fronto-orbital WM</t>
   </si>
   <si>
@@ -340,15 +340,15 @@
     <t>2.8e-12</t>
   </si>
   <si>
+    <t>7.3e-28</t>
+  </si>
+  <si>
+    <t>1.0e-33</t>
+  </si>
+  <si>
     <t>4.4e-59</t>
   </si>
   <si>
-    <t>7.3e-28</t>
-  </si>
-  <si>
-    <t>1.0e-33</t>
-  </si>
-  <si>
     <t>3.0e-75</t>
   </si>
   <si>
@@ -460,15 +460,15 @@
     <t>-0.440</t>
   </si>
   <si>
+    <t>-0.566</t>
+  </si>
+  <si>
+    <t>-0.376</t>
+  </si>
+  <si>
     <t>-0.374</t>
   </si>
   <si>
-    <t>-0.566</t>
-  </si>
-  <si>
-    <t>-0.376</t>
-  </si>
-  <si>
     <t>-0.381</t>
   </si>
   <si>
@@ -577,15 +577,15 @@
     <t>7.3e-07</t>
   </si>
   <si>
+    <t>1.7e-06</t>
+  </si>
+  <si>
+    <t>2.5e-03</t>
+  </si>
+  <si>
     <t>4.8e-03</t>
   </si>
   <si>
-    <t>1.7e-06</t>
-  </si>
-  <si>
-    <t>2.5e-03</t>
-  </si>
-  <si>
     <t>1.3e-01</t>
   </si>
   <si>
@@ -662,9 +662,6 @@
   </si>
   <si>
     <t>Inferior Fronto-occipital Fasciculus</t>
-  </si>
-  <si>
-    <t>Middle Fronto-orbital</t>
   </si>
   <si>
     <t>Lateral Fronto-orbital WM</t>
@@ -1509,7 +1506,7 @@
         <v>27</v>
       </c>
       <c r="B23" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="C23" t="s">
         <v>108</v>
@@ -1529,7 +1526,7 @@
         <v>28</v>
       </c>
       <c r="B24" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C24" t="s">
         <v>109</v>
@@ -1541,7 +1538,7 @@
         <v>188</v>
       </c>
       <c r="F24" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1549,7 +1546,7 @@
         <v>29</v>
       </c>
       <c r="B25" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="C25" t="s">
         <v>110</v>
@@ -1581,7 +1578,7 @@
         <v>190</v>
       </c>
       <c r="F26" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1601,7 +1598,7 @@
         <v>191</v>
       </c>
       <c r="F27" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1621,7 +1618,7 @@
         <v>192</v>
       </c>
       <c r="F28" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1641,7 +1638,7 @@
         <v>193</v>
       </c>
       <c r="F29" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1661,7 +1658,7 @@
         <v>194</v>
       </c>
       <c r="F30" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1681,7 +1678,7 @@
         <v>194</v>
       </c>
       <c r="F31" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1701,7 +1698,7 @@
         <v>195</v>
       </c>
       <c r="F32" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1721,7 +1718,7 @@
         <v>169</v>
       </c>
       <c r="F33" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1738,10 +1735,10 @@
         <v>158</v>
       </c>
       <c r="E34" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F34" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1761,7 +1758,7 @@
         <v>196</v>
       </c>
       <c r="F35" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1781,7 +1778,7 @@
         <v>197</v>
       </c>
       <c r="F36" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1801,7 +1798,7 @@
         <v>198</v>
       </c>
       <c r="F37" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1821,7 +1818,7 @@
         <v>199</v>
       </c>
       <c r="F38" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1841,7 +1838,7 @@
         <v>200</v>
       </c>
       <c r="F39" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1861,7 +1858,7 @@
         <v>201</v>
       </c>
       <c r="F40" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1881,7 +1878,7 @@
         <v>202</v>
       </c>
       <c r="F41" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1901,7 +1898,7 @@
         <v>203</v>
       </c>
       <c r="F42" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>

--- a/Experiments/report_beta_p-value_ROI.xlsx
+++ b/Experiments/report_beta_p-value_ROI.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="203">
   <si>
     <t>ROI</t>
   </si>
@@ -31,9 +31,6 @@
     <t>p-value_motion</t>
   </si>
   <si>
-    <t>ROI_clean_l</t>
-  </si>
-  <si>
     <t>Left Angular WM</t>
   </si>
   <si>
@@ -626,78 +623,6 @@
   </si>
   <si>
     <t>6.6e-02</t>
-  </si>
-  <si>
-    <t>Angular WM</t>
-  </si>
-  <si>
-    <t>Body of Corpus Callosum</t>
-  </si>
-  <si>
-    <t>Inferior Cerebellar Peduncle</t>
-  </si>
-  <si>
-    <t>Middle Cerebellar Peduncle</t>
-  </si>
-  <si>
-    <t>Cingulate Gyrus</t>
-  </si>
-  <si>
-    <t>Cingulum (Cingulate Gyrus)</t>
-  </si>
-  <si>
-    <t>Cuneus</t>
-  </si>
-  <si>
-    <t>Cuneus WM</t>
-  </si>
-  <si>
-    <t>Fornix(cres) Stria Terminalis</t>
-  </si>
-  <si>
-    <t>Middle Frontal WM</t>
-  </si>
-  <si>
-    <t>Superior Frontal WM</t>
-  </si>
-  <si>
-    <t>Inferior Fronto-occipital Fasciculus</t>
-  </si>
-  <si>
-    <t>Lateral Fronto-orbital WM</t>
-  </si>
-  <si>
-    <t>Middle Fronto-orbital WM</t>
-  </si>
-  <si>
-    <t>Fusiform WM</t>
-  </si>
-  <si>
-    <t>Lingual WM</t>
-  </si>
-  <si>
-    <t>Medulla</t>
-  </si>
-  <si>
-    <t>Middle Occipital Gyrus</t>
-  </si>
-  <si>
-    <t>Superior Occipital Gyrus</t>
-  </si>
-  <si>
-    <t>Inferior Occipital WM</t>
-  </si>
-  <si>
-    <t>Middle Occipital WM</t>
-  </si>
-  <si>
-    <t>Precuneus</t>
-  </si>
-  <si>
-    <t>Precuneus WM</t>
-  </si>
-  <si>
-    <t>Rectus WM</t>
   </si>
 </sst>
 </file>
@@ -1055,13 +980,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1077,828 +1002,702 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>47</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
         <v>87</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D3" t="s">
         <v>128</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E3" t="s">
         <v>167</v>
       </c>
-      <c r="F2" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>48</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
         <v>88</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D4" t="s">
         <v>129</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E4" t="s">
         <v>168</v>
       </c>
-      <c r="F3" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>49</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" t="s">
         <v>89</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D5" t="s">
         <v>130</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E5" t="s">
         <v>169</v>
       </c>
-      <c r="F4" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>50</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C6" t="s">
         <v>90</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D6" t="s">
         <v>131</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E6" t="s">
         <v>170</v>
       </c>
-      <c r="F5" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
         <v>10</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>51</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" t="s">
         <v>91</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D7" t="s">
         <v>132</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E7" t="s">
         <v>171</v>
       </c>
-      <c r="F6" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
         <v>11</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>52</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
         <v>92</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D8" t="s">
         <v>133</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E8" t="s">
         <v>172</v>
       </c>
-      <c r="F7" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
         <v>12</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>53</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C9" t="s">
         <v>93</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D9" t="s">
         <v>134</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E9" t="s">
         <v>173</v>
       </c>
-      <c r="F8" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
         <v>13</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>54</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C10" t="s">
         <v>94</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D10" t="s">
         <v>135</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E10" t="s">
         <v>174</v>
       </c>
-      <c r="F9" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" t="s">
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
         <v>14</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>55</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C11" t="s">
         <v>95</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D11" t="s">
         <v>136</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E11" t="s">
         <v>175</v>
       </c>
-      <c r="F10" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" t="s">
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
         <v>15</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>56</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C12" t="s">
         <v>96</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D12" t="s">
         <v>137</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E12" t="s">
         <v>176</v>
       </c>
-      <c r="F11" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" t="s">
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
         <v>16</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>57</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C13" t="s">
         <v>97</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D13" t="s">
         <v>138</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E13" t="s">
         <v>177</v>
       </c>
-      <c r="F12" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" t="s">
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
         <v>17</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>58</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C14" t="s">
         <v>98</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D14" t="s">
         <v>139</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E14" t="s">
         <v>178</v>
       </c>
-      <c r="F13" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" t="s">
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
         <v>18</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>59</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C15" t="s">
         <v>99</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D15" t="s">
         <v>140</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E15" t="s">
         <v>179</v>
       </c>
-      <c r="F14" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" t="s">
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
         <v>19</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
         <v>60</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C16" t="s">
         <v>100</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D16" t="s">
         <v>141</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E16" t="s">
         <v>180</v>
       </c>
-      <c r="F15" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" t="s">
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
         <v>20</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
         <v>61</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C17" t="s">
         <v>101</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D17" t="s">
         <v>142</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E17" t="s">
         <v>181</v>
       </c>
-      <c r="F16" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" t="s">
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
         <v>21</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
         <v>62</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C18" t="s">
         <v>102</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D18" t="s">
         <v>143</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E18" t="s">
         <v>182</v>
       </c>
-      <c r="F17" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" t="s">
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
         <v>22</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" t="s">
         <v>63</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C19" t="s">
         <v>103</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D19" t="s">
         <v>144</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E19" t="s">
         <v>183</v>
       </c>
-      <c r="F18" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" t="s">
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
         <v>23</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B20" t="s">
         <v>64</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C20" t="s">
         <v>104</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D20" t="s">
         <v>145</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E20" t="s">
         <v>184</v>
       </c>
-      <c r="F19" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" t="s">
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
         <v>24</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
         <v>65</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C21" t="s">
         <v>105</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D21" t="s">
         <v>146</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E21" t="s">
         <v>185</v>
       </c>
-      <c r="F20" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" t="s">
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
         <v>25</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" t="s">
         <v>66</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C22" t="s">
         <v>106</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D22" t="s">
+        <v>130</v>
+      </c>
+      <c r="E22" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" t="s">
+        <v>107</v>
+      </c>
+      <c r="D23" t="s">
         <v>147</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E23" t="s">
         <v>186</v>
       </c>
-      <c r="F21" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" t="s">
-        <v>67</v>
-      </c>
-      <c r="C22" t="s">
-        <v>107</v>
-      </c>
-      <c r="D22" t="s">
-        <v>131</v>
-      </c>
-      <c r="E22" t="s">
-        <v>167</v>
-      </c>
-      <c r="F22" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" t="s">
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
         <v>27</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B24" t="s">
         <v>68</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C24" t="s">
         <v>108</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D24" t="s">
         <v>148</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E24" t="s">
         <v>187</v>
       </c>
-      <c r="F23" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" t="s">
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
         <v>28</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" t="s">
+        <v>109</v>
+      </c>
+      <c r="D25" t="s">
+        <v>149</v>
+      </c>
+      <c r="E25" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" t="s">
         <v>69</v>
       </c>
-      <c r="C24" t="s">
-        <v>109</v>
-      </c>
-      <c r="D24" t="s">
-        <v>149</v>
-      </c>
-      <c r="E24" t="s">
-        <v>188</v>
-      </c>
-      <c r="F24" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" t="s">
-        <v>29</v>
-      </c>
-      <c r="B25" t="s">
-        <v>60</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="C26" t="s">
         <v>110</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D26" t="s">
+        <v>128</v>
+      </c>
+      <c r="E26" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" t="s">
+        <v>70</v>
+      </c>
+      <c r="C27" t="s">
+        <v>111</v>
+      </c>
+      <c r="D27" t="s">
         <v>150</v>
       </c>
-      <c r="E25" t="s">
-        <v>189</v>
-      </c>
-      <c r="F25" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" t="s">
-        <v>30</v>
-      </c>
-      <c r="B26" t="s">
-        <v>70</v>
-      </c>
-      <c r="C26" t="s">
-        <v>111</v>
-      </c>
-      <c r="D26" t="s">
-        <v>129</v>
-      </c>
-      <c r="E26" t="s">
+      <c r="E27" t="s">
         <v>190</v>
       </c>
-      <c r="F26" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" t="s">
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
         <v>31</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B28" t="s">
         <v>71</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C28" t="s">
         <v>112</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D28" t="s">
         <v>151</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E28" t="s">
         <v>191</v>
       </c>
-      <c r="F27" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" t="s">
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
         <v>32</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B29" t="s">
         <v>72</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C29" t="s">
         <v>113</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D29" t="s">
         <v>152</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E29" t="s">
         <v>192</v>
       </c>
-      <c r="F28" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" t="s">
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
         <v>33</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B30" t="s">
         <v>73</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C30" t="s">
         <v>114</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D30" t="s">
         <v>153</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E30" t="s">
         <v>193</v>
       </c>
-      <c r="F29" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" t="s">
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
         <v>34</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B31" t="s">
         <v>74</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C31" t="s">
         <v>115</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D31" t="s">
         <v>154</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E31" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" t="s">
+        <v>75</v>
+      </c>
+      <c r="C32" t="s">
+        <v>116</v>
+      </c>
+      <c r="D32" t="s">
+        <v>155</v>
+      </c>
+      <c r="E32" t="s">
         <v>194</v>
       </c>
-      <c r="F30" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" t="s">
-        <v>35</v>
-      </c>
-      <c r="B31" t="s">
-        <v>75</v>
-      </c>
-      <c r="C31" t="s">
-        <v>116</v>
-      </c>
-      <c r="D31" t="s">
-        <v>155</v>
-      </c>
-      <c r="E31" t="s">
-        <v>194</v>
-      </c>
-      <c r="F31" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" t="s">
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
         <v>36</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B33" t="s">
         <v>76</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C33" t="s">
         <v>117</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D33" t="s">
         <v>156</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E33" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" t="s">
+        <v>77</v>
+      </c>
+      <c r="C34" t="s">
+        <v>118</v>
+      </c>
+      <c r="D34" t="s">
+        <v>157</v>
+      </c>
+      <c r="E34" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" t="s">
+        <v>78</v>
+      </c>
+      <c r="C35" t="s">
+        <v>119</v>
+      </c>
+      <c r="D35" t="s">
+        <v>158</v>
+      </c>
+      <c r="E35" t="s">
         <v>195</v>
       </c>
-      <c r="F32" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" t="s">
-        <v>37</v>
-      </c>
-      <c r="B33" t="s">
-        <v>77</v>
-      </c>
-      <c r="C33" t="s">
-        <v>118</v>
-      </c>
-      <c r="D33" t="s">
-        <v>157</v>
-      </c>
-      <c r="E33" t="s">
-        <v>169</v>
-      </c>
-      <c r="F33" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" t="s">
-        <v>38</v>
-      </c>
-      <c r="B34" t="s">
-        <v>78</v>
-      </c>
-      <c r="C34" t="s">
-        <v>119</v>
-      </c>
-      <c r="D34" t="s">
-        <v>158</v>
-      </c>
-      <c r="E34" t="s">
-        <v>187</v>
-      </c>
-      <c r="F34" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" t="s">
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
         <v>39</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B36" t="s">
         <v>79</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C36" t="s">
         <v>120</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D36" t="s">
         <v>159</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E36" t="s">
         <v>196</v>
       </c>
-      <c r="F35" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" t="s">
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
         <v>40</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B37" t="s">
         <v>80</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C37" t="s">
         <v>121</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D37" t="s">
         <v>160</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E37" t="s">
         <v>197</v>
       </c>
-      <c r="F36" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" t="s">
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" t="s">
         <v>41</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B38" t="s">
         <v>81</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C38" t="s">
         <v>122</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D38" t="s">
         <v>161</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E38" t="s">
         <v>198</v>
       </c>
-      <c r="F37" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" t="s">
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" t="s">
         <v>42</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B39" t="s">
         <v>82</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C39" t="s">
         <v>123</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D39" t="s">
         <v>162</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E39" t="s">
         <v>199</v>
       </c>
-      <c r="F38" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" t="s">
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" t="s">
         <v>43</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B40" t="s">
         <v>83</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C40" t="s">
         <v>124</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D40" t="s">
         <v>163</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E40" t="s">
         <v>200</v>
       </c>
-      <c r="F39" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" t="s">
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" t="s">
         <v>44</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B41" t="s">
         <v>84</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C41" t="s">
         <v>125</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D41" t="s">
         <v>164</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E41" t="s">
         <v>201</v>
       </c>
-      <c r="F40" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" t="s">
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" t="s">
         <v>45</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B42" t="s">
         <v>85</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C42" t="s">
         <v>126</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D42" t="s">
         <v>165</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E42" t="s">
         <v>202</v>
-      </c>
-      <c r="F41" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" t="s">
-        <v>46</v>
-      </c>
-      <c r="B42" t="s">
-        <v>86</v>
-      </c>
-      <c r="C42" t="s">
-        <v>127</v>
-      </c>
-      <c r="D42" t="s">
-        <v>166</v>
-      </c>
-      <c r="E42" t="s">
-        <v>203</v>
-      </c>
-      <c r="F42" t="s">
-        <v>227</v>
       </c>
     </row>
   </sheetData>
